--- a/Шаблон таблицы тест кейсов - обучение.xlsx
+++ b/Шаблон таблицы тест кейсов - обучение.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>passed</t>
   </si>
@@ -761,6 +761,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -769,27 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,8 +1184,8 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:DT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1229,7 +1229,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="14">
         <f>COUNTIF(L$8:L$14,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="14">
@@ -1274,7 +1274,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="15">
         <f>COUNTIF(L$8:L$14,"passed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="15">
@@ -1347,7 +1347,9 @@
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="20">
+        <v>44233</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1401,43 +1403,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="39"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="39"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="39"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1447,29 +1449,29 @@
     </row>
     <row r="7" spans="1:124" ht="127.05" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="41"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="39"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="39"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="39"/>
+      <c r="T7" s="46"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1499,7 +1501,9 @@
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1535,7 +1539,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -3072,12 +3078,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3085,6 +3085,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 L8:L9 R8:R9 P8:P9 T8:T9 N11:N36 T11:T36 P11:P36 R11:R36 L11:L36">

--- a/Шаблон таблицы тест кейсов - обучение.xlsx
+++ b/Шаблон таблицы тест кейсов - обучение.xlsx
@@ -761,6 +761,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -775,21 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,7 +1184,7 @@
   <sheetPr codeName="Worksheet____5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:DT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1403,43 +1403,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="47"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="46"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="46"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="46"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1449,29 +1449,29 @@
     </row>
     <row r="7" spans="1:124" ht="127.05" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="48"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="46"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="46"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="46"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="46"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1502,7 +1502,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="10"/>
       <c r="L8" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
@@ -1540,7 +1540,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="10"/>
       <c r="L9" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
@@ -3078,6 +3078,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3085,12 +3091,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 L8:L9 R8:R9 P8:P9 T8:T9 N11:N36 T11:T36 P11:P36 R11:R36 L11:L36">
